--- a/medicine/Enfance/Les_Mots_magiques_(album)/Les_Mots_magiques_(album).xlsx
+++ b/medicine/Enfance/Les_Mots_magiques_(album)/Les_Mots_magiques_(album).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mots magiques est un album d'Anne Sylvestre paru chez EPM Musique[1] en 1996.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mots magiques est un album d'Anne Sylvestre paru chez EPM Musique en 1996.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorti en 1996, il reprend des titres enregistrés en 1984[2] : les pistes 1 à 3, 9 à 13 et 19.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorti en 1996, il reprend des titres enregistrés en 1984 : les pistes 1 à 3, 9 à 13 et 19.
 En CD, il est le treizième de la série des Fabulettes chez EPM.
-« Des chansons gaies et chansons tendres, chansons drôles ou pour apprendre, des mots magiques à deviner, des mots qui portent et font rêver[3]. »
+« Des chansons gaies et chansons tendres, chansons drôles ou pour apprendre, des mots magiques à deviner, des mots qui portent et font rêver. »
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -575,7 +591,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Production : EPM Musique
 Direction musicale : François Rauber
@@ -609,9 +627,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12e cérémonie des Victoires de la musique : nomination à l'album de musique pour enfants[4] (1997)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12e cérémonie des Victoires de la musique : nomination à l'album de musique pour enfants (1997)</t>
         </is>
       </c>
     </row>
